--- a/詳細設計/画面遷移図.xlsx
+++ b/詳細設計/画面遷移図.xlsx
@@ -676,7 +676,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="71">
+  <cellXfs count="70">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -738,6 +738,10 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="4" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="4" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="4" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="4" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="4" xfId="4" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="5" xfId="6" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="6" xfId="6" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -758,6 +762,12 @@
     <xf numFmtId="14" fontId="1" fillId="2" borderId="3" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="4" xfId="4" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="5" xfId="6" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="6" xfId="6" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="10" xfId="6" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="11" xfId="6" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="12" xfId="6" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -773,16 +783,10 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="4" xfId="4" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="5" xfId="6" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="6" xfId="6" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="10" xfId="6" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="11" xfId="6" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="12" xfId="6" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="14" fillId="2" borderId="7" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="4" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="2" borderId="7" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -792,13 +796,6 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="4" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="4" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="4" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="4" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="4" applyFont="1" applyFill="1" applyAlignment="1">
@@ -3871,6 +3868,10 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -4173,7 +4174,7 @@
   <dimension ref="A1:FT43"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="AD26" sqref="AD26"/>
+      <selection activeCell="F8" sqref="F8:Q8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.95" customHeight="1"/>
@@ -4569,20 +4570,20 @@
       <c r="C8" s="33"/>
       <c r="D8" s="33"/>
       <c r="E8" s="34"/>
-      <c r="F8" s="41" t="s">
+      <c r="F8" s="45" t="s">
         <v>14</v>
       </c>
-      <c r="G8" s="42"/>
-      <c r="H8" s="42"/>
-      <c r="I8" s="42"/>
-      <c r="J8" s="42"/>
-      <c r="K8" s="42"/>
-      <c r="L8" s="42"/>
-      <c r="M8" s="42"/>
-      <c r="N8" s="42"/>
-      <c r="O8" s="42"/>
-      <c r="P8" s="42"/>
-      <c r="Q8" s="43"/>
+      <c r="G8" s="46"/>
+      <c r="H8" s="46"/>
+      <c r="I8" s="46"/>
+      <c r="J8" s="46"/>
+      <c r="K8" s="46"/>
+      <c r="L8" s="46"/>
+      <c r="M8" s="46"/>
+      <c r="N8" s="46"/>
+      <c r="O8" s="46"/>
+      <c r="P8" s="46"/>
+      <c r="Q8" s="47"/>
       <c r="R8" s="5"/>
       <c r="S8" s="5"/>
       <c r="T8" s="5"/>
@@ -4601,26 +4602,26 @@
     </row>
     <row r="9" spans="1:176" ht="12.95" customHeight="1">
       <c r="A9" s="19"/>
-      <c r="B9" s="35" t="s">
+      <c r="B9" s="39" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="36"/>
-      <c r="D9" s="36"/>
-      <c r="E9" s="37"/>
-      <c r="F9" s="54" t="s">
+      <c r="C9" s="40"/>
+      <c r="D9" s="40"/>
+      <c r="E9" s="41"/>
+      <c r="F9" s="53" t="s">
         <v>15</v>
       </c>
-      <c r="G9" s="55"/>
-      <c r="H9" s="55"/>
-      <c r="I9" s="55"/>
-      <c r="J9" s="55"/>
-      <c r="K9" s="55"/>
-      <c r="L9" s="55"/>
-      <c r="M9" s="55"/>
-      <c r="N9" s="55"/>
-      <c r="O9" s="55"/>
-      <c r="P9" s="55"/>
-      <c r="Q9" s="56"/>
+      <c r="G9" s="54"/>
+      <c r="H9" s="54"/>
+      <c r="I9" s="54"/>
+      <c r="J9" s="54"/>
+      <c r="K9" s="54"/>
+      <c r="L9" s="54"/>
+      <c r="M9" s="54"/>
+      <c r="N9" s="54"/>
+      <c r="O9" s="54"/>
+      <c r="P9" s="54"/>
+      <c r="Q9" s="55"/>
       <c r="R9" s="5"/>
       <c r="S9" s="5"/>
       <c r="T9" s="5"/>
@@ -4639,22 +4640,22 @@
     </row>
     <row r="10" spans="1:176" ht="12.95" customHeight="1">
       <c r="A10" s="19"/>
-      <c r="B10" s="38"/>
-      <c r="C10" s="39"/>
-      <c r="D10" s="39"/>
-      <c r="E10" s="40"/>
-      <c r="F10" s="57"/>
-      <c r="G10" s="58"/>
-      <c r="H10" s="58"/>
-      <c r="I10" s="58"/>
-      <c r="J10" s="58"/>
-      <c r="K10" s="58"/>
-      <c r="L10" s="58"/>
-      <c r="M10" s="58"/>
-      <c r="N10" s="58"/>
-      <c r="O10" s="58"/>
-      <c r="P10" s="58"/>
-      <c r="Q10" s="59"/>
+      <c r="B10" s="42"/>
+      <c r="C10" s="43"/>
+      <c r="D10" s="43"/>
+      <c r="E10" s="44"/>
+      <c r="F10" s="56"/>
+      <c r="G10" s="57"/>
+      <c r="H10" s="57"/>
+      <c r="I10" s="57"/>
+      <c r="J10" s="57"/>
+      <c r="K10" s="57"/>
+      <c r="L10" s="57"/>
+      <c r="M10" s="57"/>
+      <c r="N10" s="57"/>
+      <c r="O10" s="57"/>
+      <c r="P10" s="57"/>
+      <c r="Q10" s="58"/>
       <c r="R10" s="5"/>
       <c r="S10" s="5"/>
       <c r="T10" s="5"/>
@@ -4869,18 +4870,18 @@
       <c r="I17" s="5"/>
       <c r="J17" s="5"/>
       <c r="K17" s="5"/>
-      <c r="L17" s="44" t="s">
+      <c r="L17" s="48" t="s">
         <v>11</v>
       </c>
-      <c r="M17" s="45"/>
-      <c r="N17" s="45"/>
-      <c r="O17" s="45"/>
-      <c r="P17" s="45"/>
-      <c r="Q17" s="45"/>
-      <c r="R17" s="45"/>
-      <c r="S17" s="45"/>
-      <c r="T17" s="45"/>
-      <c r="U17" s="45"/>
+      <c r="M17" s="49"/>
+      <c r="N17" s="49"/>
+      <c r="O17" s="49"/>
+      <c r="P17" s="49"/>
+      <c r="Q17" s="49"/>
+      <c r="R17" s="49"/>
+      <c r="S17" s="49"/>
+      <c r="T17" s="49"/>
+      <c r="U17" s="49"/>
       <c r="V17" s="5"/>
       <c r="W17" s="5"/>
       <c r="AA17" s="5"/>
@@ -4902,16 +4903,16 @@
       <c r="I18" s="5"/>
       <c r="J18" s="5"/>
       <c r="K18" s="5"/>
-      <c r="L18" s="45"/>
-      <c r="M18" s="45"/>
-      <c r="N18" s="45"/>
-      <c r="O18" s="45"/>
-      <c r="P18" s="45"/>
-      <c r="Q18" s="45"/>
-      <c r="R18" s="45"/>
-      <c r="S18" s="45"/>
-      <c r="T18" s="45"/>
-      <c r="U18" s="45"/>
+      <c r="L18" s="49"/>
+      <c r="M18" s="49"/>
+      <c r="N18" s="49"/>
+      <c r="O18" s="49"/>
+      <c r="P18" s="49"/>
+      <c r="Q18" s="49"/>
+      <c r="R18" s="49"/>
+      <c r="S18" s="49"/>
+      <c r="T18" s="49"/>
+      <c r="U18" s="49"/>
       <c r="V18" s="5"/>
       <c r="W18" s="5"/>
       <c r="AA18" s="5"/>
@@ -4933,16 +4934,16 @@
       <c r="I19" s="5"/>
       <c r="J19" s="5"/>
       <c r="K19" s="5"/>
-      <c r="L19" s="45"/>
-      <c r="M19" s="45"/>
-      <c r="N19" s="45"/>
-      <c r="O19" s="45"/>
-      <c r="P19" s="45"/>
-      <c r="Q19" s="45"/>
-      <c r="R19" s="45"/>
-      <c r="S19" s="45"/>
-      <c r="T19" s="45"/>
-      <c r="U19" s="45"/>
+      <c r="L19" s="49"/>
+      <c r="M19" s="49"/>
+      <c r="N19" s="49"/>
+      <c r="O19" s="49"/>
+      <c r="P19" s="49"/>
+      <c r="Q19" s="49"/>
+      <c r="R19" s="49"/>
+      <c r="S19" s="49"/>
+      <c r="T19" s="49"/>
+      <c r="U19" s="49"/>
       <c r="V19" s="5"/>
       <c r="W19" s="5"/>
       <c r="X19" s="5"/>
@@ -5174,12 +5175,12 @@
       <c r="C26" s="9"/>
       <c r="D26" s="9"/>
       <c r="E26" s="9"/>
-      <c r="F26" s="46">
+      <c r="F26" s="50">
         <v>45938</v>
       </c>
-      <c r="G26" s="47"/>
-      <c r="H26" s="47"/>
-      <c r="I26" s="48"/>
+      <c r="G26" s="51"/>
+      <c r="H26" s="51"/>
+      <c r="I26" s="52"/>
       <c r="J26" s="8" t="s">
         <v>8</v>
       </c>
@@ -5825,37 +5826,37 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:173" ht="12.75" customHeight="1">
-      <c r="A1" s="49" t="s">
+      <c r="A1" s="59" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="50"/>
-      <c r="C1" s="50"/>
-      <c r="D1" s="50"/>
-      <c r="E1" s="50"/>
-      <c r="F1" s="50"/>
-      <c r="G1" s="50"/>
-      <c r="H1" s="50"/>
-      <c r="I1" s="50"/>
-      <c r="J1" s="50"/>
-      <c r="K1" s="50"/>
-      <c r="L1" s="50"/>
-      <c r="M1" s="50"/>
-      <c r="N1" s="50"/>
-      <c r="O1" s="50"/>
-      <c r="P1" s="50"/>
-      <c r="Q1" s="50"/>
-      <c r="R1" s="50"/>
-      <c r="S1" s="50"/>
-      <c r="T1" s="50"/>
-      <c r="U1" s="50"/>
-      <c r="V1" s="50"/>
-      <c r="W1" s="50"/>
-      <c r="X1" s="50"/>
-      <c r="Y1" s="50"/>
-      <c r="Z1" s="50"/>
-      <c r="AA1" s="50"/>
-      <c r="AB1" s="50"/>
-      <c r="AC1" s="51"/>
+      <c r="B1" s="60"/>
+      <c r="C1" s="60"/>
+      <c r="D1" s="60"/>
+      <c r="E1" s="60"/>
+      <c r="F1" s="60"/>
+      <c r="G1" s="60"/>
+      <c r="H1" s="60"/>
+      <c r="I1" s="60"/>
+      <c r="J1" s="60"/>
+      <c r="K1" s="60"/>
+      <c r="L1" s="60"/>
+      <c r="M1" s="60"/>
+      <c r="N1" s="60"/>
+      <c r="O1" s="60"/>
+      <c r="P1" s="60"/>
+      <c r="Q1" s="60"/>
+      <c r="R1" s="60"/>
+      <c r="S1" s="60"/>
+      <c r="T1" s="60"/>
+      <c r="U1" s="60"/>
+      <c r="V1" s="60"/>
+      <c r="W1" s="60"/>
+      <c r="X1" s="60"/>
+      <c r="Y1" s="60"/>
+      <c r="Z1" s="60"/>
+      <c r="AA1" s="60"/>
+      <c r="AB1" s="60"/>
+      <c r="AC1" s="61"/>
     </row>
     <row r="2" spans="1:173" ht="14.25" customHeight="1">
       <c r="A2" s="2" t="s">
@@ -5889,10 +5890,10 @@
         <v>1</v>
       </c>
       <c r="AA2" s="3"/>
-      <c r="AB2" s="52" t="s">
+      <c r="AB2" s="62" t="s">
         <v>2</v>
       </c>
-      <c r="AC2" s="53"/>
+      <c r="AC2" s="63"/>
     </row>
     <row r="3" spans="1:173" ht="12.75" customHeight="1">
       <c r="A3" s="2" t="s">
@@ -5922,14 +5923,14 @@
       <c r="W3" s="3"/>
       <c r="X3" s="3"/>
       <c r="Y3" s="3"/>
-      <c r="Z3" s="52" t="s">
+      <c r="Z3" s="62" t="s">
         <v>18</v>
       </c>
-      <c r="AA3" s="53"/>
-      <c r="AB3" s="52" t="s">
+      <c r="AA3" s="63"/>
+      <c r="AB3" s="62" t="s">
         <v>16</v>
       </c>
-      <c r="AC3" s="53"/>
+      <c r="AC3" s="63"/>
     </row>
     <row r="4" spans="1:173" s="7" customFormat="1" ht="12.75" customHeight="1">
       <c r="A4" s="29"/>
@@ -6267,14 +6268,14 @@
       <c r="I10" s="5"/>
       <c r="K10" s="5"/>
       <c r="L10" s="5"/>
-      <c r="M10" s="70" t="s">
+      <c r="M10" s="69" t="s">
         <v>28</v>
       </c>
-      <c r="N10" s="69"/>
-      <c r="O10" s="69"/>
-      <c r="P10" s="69"/>
-      <c r="Q10" s="69"/>
-      <c r="V10" s="65" t="s">
+      <c r="N10" s="65"/>
+      <c r="O10" s="65"/>
+      <c r="P10" s="65"/>
+      <c r="Q10" s="65"/>
+      <c r="V10" s="35" t="s">
         <v>25</v>
       </c>
       <c r="W10" s="5"/>
@@ -6298,11 +6299,11 @@
       <c r="J11" s="5"/>
       <c r="K11" s="5"/>
       <c r="L11" s="5"/>
-      <c r="M11" s="69"/>
-      <c r="N11" s="69"/>
-      <c r="O11" s="69"/>
-      <c r="P11" s="69"/>
-      <c r="Q11" s="69"/>
+      <c r="M11" s="65"/>
+      <c r="N11" s="65"/>
+      <c r="O11" s="65"/>
+      <c r="P11" s="65"/>
+      <c r="Q11" s="65"/>
       <c r="V11" s="5"/>
       <c r="W11" s="5"/>
       <c r="X11" s="5"/>
@@ -6318,7 +6319,7 @@
       <c r="C12" s="5"/>
       <c r="D12" s="5"/>
       <c r="E12" s="5"/>
-      <c r="F12" s="67" t="s">
+      <c r="F12" s="37" t="s">
         <v>24</v>
       </c>
       <c r="G12" s="5"/>
@@ -6361,7 +6362,7 @@
       <c r="M13" s="5"/>
       <c r="N13" s="5"/>
       <c r="O13" s="5"/>
-      <c r="P13" s="66" t="s">
+      <c r="P13" s="36" t="s">
         <v>32</v>
       </c>
       <c r="Q13" s="5"/>
@@ -6421,13 +6422,13 @@
       <c r="M15" s="5"/>
       <c r="N15" s="5"/>
       <c r="O15" s="5"/>
-      <c r="P15" s="70" t="s">
+      <c r="P15" s="69" t="s">
         <v>28</v>
       </c>
-      <c r="Q15" s="69"/>
-      <c r="R15" s="69"/>
-      <c r="S15" s="69"/>
-      <c r="T15" s="69"/>
+      <c r="Q15" s="65"/>
+      <c r="R15" s="65"/>
+      <c r="S15" s="65"/>
+      <c r="T15" s="65"/>
       <c r="U15" s="5"/>
       <c r="V15" s="5"/>
       <c r="W15" s="5"/>
@@ -6439,11 +6440,11 @@
       <c r="AC15" s="21"/>
     </row>
     <row r="16" spans="1:173" ht="12.75" customHeight="1">
-      <c r="A16" s="60" t="s">
+      <c r="A16" s="64" t="s">
         <v>22</v>
       </c>
-      <c r="B16" s="61"/>
-      <c r="C16" s="61"/>
+      <c r="B16" s="65"/>
+      <c r="C16" s="65"/>
       <c r="E16" s="5"/>
       <c r="F16" s="28"/>
       <c r="G16" s="5"/>
@@ -6454,13 +6455,13 @@
       <c r="L16" s="5"/>
       <c r="M16" s="5"/>
       <c r="N16" s="5"/>
-      <c r="P16" s="69"/>
-      <c r="Q16" s="69"/>
-      <c r="R16" s="69"/>
-      <c r="S16" s="69"/>
-      <c r="T16" s="69"/>
+      <c r="P16" s="65"/>
+      <c r="Q16" s="65"/>
+      <c r="R16" s="65"/>
+      <c r="S16" s="65"/>
+      <c r="T16" s="65"/>
       <c r="U16" s="5"/>
-      <c r="V16" s="68" t="s">
+      <c r="V16" s="38" t="s">
         <v>25</v>
       </c>
       <c r="W16" s="5"/>
@@ -6472,16 +6473,16 @@
       <c r="AC16" s="21"/>
     </row>
     <row r="17" spans="1:29" ht="12.75" customHeight="1">
-      <c r="A17" s="62"/>
-      <c r="B17" s="61"/>
-      <c r="C17" s="61"/>
+      <c r="A17" s="66"/>
+      <c r="B17" s="65"/>
+      <c r="C17" s="65"/>
       <c r="E17" s="5"/>
-      <c r="F17" s="63" t="s">
+      <c r="F17" s="67" t="s">
         <v>23</v>
       </c>
-      <c r="G17" s="64"/>
-      <c r="H17" s="64"/>
-      <c r="I17" s="64"/>
+      <c r="G17" s="68"/>
+      <c r="H17" s="68"/>
+      <c r="I17" s="68"/>
       <c r="J17" s="5"/>
       <c r="K17" s="5"/>
       <c r="L17" s="5"/>
@@ -6508,13 +6509,13 @@
       <c r="C18" s="5"/>
       <c r="D18" s="5"/>
       <c r="E18" s="5"/>
-      <c r="F18" s="64"/>
-      <c r="G18" s="64"/>
-      <c r="H18" s="64"/>
-      <c r="I18" s="64"/>
+      <c r="F18" s="68"/>
+      <c r="G18" s="68"/>
+      <c r="H18" s="68"/>
+      <c r="I18" s="68"/>
       <c r="J18" s="5"/>
       <c r="K18" s="5"/>
-      <c r="L18" s="66" t="s">
+      <c r="L18" s="36" t="s">
         <v>30</v>
       </c>
       <c r="N18" s="5"/>
@@ -6609,7 +6610,7 @@
       <c r="Q21" s="5"/>
       <c r="R21" s="5"/>
       <c r="S21" s="5"/>
-      <c r="T21" s="66" t="s">
+      <c r="T21" s="36" t="s">
         <v>31</v>
       </c>
       <c r="U21" s="5"/>
@@ -6637,7 +6638,7 @@
       <c r="M22" s="5"/>
       <c r="N22" s="5"/>
       <c r="O22" s="5"/>
-      <c r="T22" s="66"/>
+      <c r="T22" s="36"/>
       <c r="V22" s="5"/>
       <c r="W22" s="5"/>
       <c r="X22" s="5"/>
@@ -7003,7 +7004,7 @@
       <c r="G36" s="5"/>
       <c r="H36" s="5"/>
       <c r="I36" s="5"/>
-      <c r="J36" s="68" t="s">
+      <c r="J36" s="38" t="s">
         <v>25</v>
       </c>
       <c r="K36" s="5"/>
